--- a/Data/Input/Without_observations/xlsx/Ikea_Beograd.xlsx
+++ b/Data/Input/Without_observations/xlsx/Ikea_Beograd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="20775" windowHeight="7620"/>
+    <workbookView xWindow="276" yWindow="636" windowWidth="20772" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -424,21 +424,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -507,7 +507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -530,7 +530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -553,7 +553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -576,7 +576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -599,7 +599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -622,7 +622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -654,20 +654,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -710,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -733,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -756,10 +756,10 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -779,10 +779,10 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -825,10 +825,10 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -848,10 +848,10 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -871,10 +871,10 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -894,10 +894,10 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -917,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
